--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9977AC-4826-4626-972E-9B2E04836A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414BACA3-EE91-4DC8-B91A-DACDAECDF5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>Text</t>
   </si>
   <si>
-    <t>Two days later, the British astronomer Richard Carrington was observing the interesting sunspot
-group through his telescope when he saw what he described as "two patches of intensely bright and
-white light" over the sunspots. He jotted a note in his painstaking record. That night there was
-scarcely a square inch of earth that was not illuminated by aurora.</t>
-  </si>
-  <si>
     <t>Q1</t>
   </si>
   <si>
@@ -91,6 +85,9 @@
   </si>
   <si>
     <t>The writing script was found on other islands in the area.</t>
+  </si>
+  <si>
+    <t>Two days later, the British astronomer Richard Carrington was observing the interesting sunspot group through his telescope when he saw what he described as "two patches of intensely bright and white light" over the sunspots. He jotted a note in his painstaking record. That night there was scarcely a square inch of earth that was not illuminated by aurora.</t>
   </si>
 </sst>
 </file>
@@ -159,7 +156,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -440,10 +437,10 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="2"/>
@@ -466,19 +463,19 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -486,16 +483,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -509,16 +506,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -532,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -555,10 +552,10 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>

--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414BACA3-EE91-4DC8-B91A-DACDAECDF5CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D7B8C-6696-4BEC-A6E3-01BD44C5B13E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +63,6 @@
 in California last year, crime also dropped nationwide.</t>
   </si>
   <si>
-    <t>The author thinks that the "three strikes and you're out" law will help taxpayers.</t>
-  </si>
-  <si>
     <t>Last year, crime declined in California, but not nationwide.</t>
   </si>
   <si>
@@ -75,9 +81,6 @@
     <t>His did not keep notes of his observations</t>
   </si>
   <si>
-    <t>Dorothy came from the road next to the green meadows</t>
-  </si>
-  <si>
     <t>Known as Rapa Nui to the island's inhabitants, Rongorongo is a writing system comprised of
 pictographs. It has been found carved into many oblong wooden tablets and other artifacts from the
 island's history. The art of writing was not known in any nearby islands and the script's mere
@@ -88,6 +91,96 @@
   </si>
   <si>
     <t>Two days later, the British astronomer Richard Carrington was observing the interesting sunspot group through his telescope when he saw what he described as "two patches of intensely bright and white light" over the sunspots. He jotted a note in his painstaking record. That night there was scarcely a square inch of earth that was not illuminated by aurora.</t>
+  </si>
+  <si>
+    <t>The author agrees that the "three strikes and you're out" law will help taxpayers.</t>
+  </si>
+  <si>
+    <t>Some months later, Michael Larson saw another opportunity to stack the odds in his favour with a dash of ingenuity. He walked into his bank one day and asked to withdraw his entire account balance, but with an unusual stipulation: He wanted as much of the cash as possible in one dollar notes.</t>
+  </si>
+  <si>
+    <t>With schools still closed, cars still buried and streets still blocked by the widespread weekend snowstorm, officials are asking people to pick up a shovel and help out. In Boston, a "snow angel" campaign is using social media to encourage neighbours and friends to be an angel and help dig out the stranded.</t>
+  </si>
+  <si>
+    <t>Greg Anderson, considered a key witness by the prosecution, vowed he wouldn't testify when served a subpoena last week. His lawyers said he was prepared for a third prison stay to maintain his silence. Anderson was released July 20 after a two-week stay for previously declining to testify before a different grand jury.</t>
+  </si>
+  <si>
+    <t>Even in the same animal, not all bites are the same. A new study finds that because the force in a muscle depends on how much it is stretched, an animal's bite force depends on the size of what it is biting. The finding has direct implications for ecology and evolution.</t>
+  </si>
+  <si>
+    <t>Police in Georgia have shut down a lemonade stand run by three girls trying to save up for a trip to a water park, saying they didn't have a business license or the required permits. Morningstar says police also didn't know how the lemonade was made.</t>
+  </si>
+  <si>
+    <t>Voltaire himself probably won around half a million livres, a large fortune, which he then made even larger in a series of canny investments. Soon Voltaire was a very rich man, rich enough to become a moneylender to the powerful and famous, rich enough that he no longer had to stake his financial well-being on that most unreliable and detestable profession, writing.</t>
+  </si>
+  <si>
+    <t>At the time the French crown secured much of its revenue by issuing government bonds. In 1727, in order to save money, the state cut the bonds’ interest rate. The market value of these bonds plummeted, and the market became wary of French credit. The French state was left without an easy way of raising money.</t>
+  </si>
+  <si>
+    <t>N_words</t>
+  </si>
+  <si>
+    <t>Stress is a risk factor for both depression and anxiety, he says. "We don't have data on the specific causes of depression and anxiety in this sample, but it does make sense scientifically that the Millennials who report higher levels of stress in their lives are also reporting higher levels of depression and anxiety.</t>
+  </si>
+  <si>
+    <t>According to the passage, anxiety is a risk factor for depression.</t>
+  </si>
+  <si>
+    <t>As in the United States, Colombian legislation requires travelers entering the country to declare cash in excess of ten thousand dollars. Concealing more than that amount to transport it into or out of the country is a crime punishable by up to five years in prison in the United States.</t>
+  </si>
+  <si>
+    <t>Proper ventilation will make a backdraft less likely. Opening a room or building at the highest point allows heated gases and smoke to be released gradually. However, suddenly breaking a window or opening a door is a mistake, because it allows oxygen to rush in, causing an explosion.</t>
+  </si>
+  <si>
+    <t>When it comes to having a lasting and fulfilling relationship, common wisdom says that feeling close to your romantic partner is paramount. But a new study finds that it's not how close you feel that matters most, it's whether you are as close as you want to be, even if that's really not close at all.</t>
+  </si>
+  <si>
+    <t>The girls ran the lemonade stand to help pay for a trip.</t>
+  </si>
+  <si>
+    <t>The girls had a licence for the lemonade stand.</t>
+  </si>
+  <si>
+    <t>Voltaire didn't lend money to other people.</t>
+  </si>
+  <si>
+    <t>Voltaire invested some of his money.</t>
+  </si>
+  <si>
+    <t>According to the passage, the study contains data on what causes anxiety and depression.</t>
+  </si>
+  <si>
+    <t>Dorothy had a clear view of the farm house.</t>
+  </si>
+  <si>
+    <t>The writing system is made of pictographs.</t>
+  </si>
+  <si>
+    <t>Greg Anderson said he is willing to testify.</t>
+  </si>
+  <si>
+    <t>According to his lawyers, Greg Anderson is prepared to spend time in prison if necessary.</t>
+  </si>
+  <si>
+    <t>All bites by the same animal are the identical.</t>
+  </si>
+  <si>
+    <t>According to the study, bite size depends on what the animal is biting.</t>
+  </si>
+  <si>
+    <t>The officials are asking residents to help with the situation.</t>
+  </si>
+  <si>
+    <t>Social media is being used to recruit helpers.</t>
+  </si>
+  <si>
+    <t>Michael Larson walked into a casino.</t>
+  </si>
+  <si>
+    <t>Michael Larson needed one dollar banknotes.</t>
+  </si>
+  <si>
+    <t>The United States and Colombia have the same rule for declaring cash.</t>
   </si>
 </sst>
 </file>
@@ -137,7 +230,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +246,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,7 +533,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,12 +543,12 @@
     <col min="3" max="3" width="117.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="75.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
-    <col min="6" max="6" width="67.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="80.7109375" style="2" customWidth="1"/>
     <col min="7" max="10" width="9.140625" style="2"/>
     <col min="11" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -474,8 +570,11 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="H1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -483,22 +582,26 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H16" si="0">IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -509,19 +612,23 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -529,22 +636,26 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -552,64 +663,303 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>18</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="2">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>48</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>53</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>55</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
+      <c r="E21" s="2">
+        <f>SUM(E2:E16, G2:G16)/(15*2)</f>
+        <v>0.36666666666666664</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
+    <sortCondition ref="B2:B16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F78D7B8C-6696-4BEC-A6E3-01BD44C5B13E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6066119-F445-46C7-A8D6-0CB25335ADA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14460" yWindow="3630" windowWidth="20475" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -57,36 +57,18 @@
     <t>Q2_ans</t>
   </si>
   <si>
-    <t>I agree that California's "three strikes and you're out" law will be a financial disaster for
-taxpayers who care about education and other vital services. But it's far from clear that the law
-can even be credited with a reduction in crime in California. While it's true that crime declined
-in California last year, crime also dropped nationwide.</t>
-  </si>
-  <si>
     <t>Last year, crime declined in California, but not nationwide.</t>
   </si>
   <si>
     <t>Richard Carrington was observing the sun.</t>
   </si>
   <si>
-    <t>Dorothy didn't know. She looked around her anxiously for some familiar landmark; but everything was
-strange. Between the branches of the many roads were green meadows and a few shrubs and trees, but
-she couldn't see the farm-house from which she had just come, or anything she had ever seen before,
-except the shaggy man and Toto.</t>
-  </si>
-  <si>
     <t>Dorothy couldn't recognise nearby landmarks.</t>
   </si>
   <si>
     <t>His did not keep notes of his observations</t>
   </si>
   <si>
-    <t>Known as Rapa Nui to the island's inhabitants, Rongorongo is a writing system comprised of
-pictographs. It has been found carved into many oblong wooden tablets and other artifacts from the
-island's history. The art of writing was not known in any nearby islands and the script's mere
-existence is sufficient to confound anthropologists.</t>
-  </si>
-  <si>
     <t>The writing script was found on other islands in the area.</t>
   </si>
   <si>
@@ -181,6 +163,15 @@
   </si>
   <si>
     <t>The United States and Colombia have the same rule for declaring cash.</t>
+  </si>
+  <si>
+    <t>I agree that California's "three strikes and you're out" law will be a financial disaster for taxpayers who care about education and other vital services. But it's far from clear that the law can even be credited with a reduction in crime in California. While it's true that crime declined in California last year, crime also dropped nationwide.</t>
+  </si>
+  <si>
+    <t>Dorothy didn't know. She looked around her anxiously for some familiar landmark; but everything was strange. Between the branches of the many roads were green meadows and a few shrubs and trees, but she couldn't see the farm-house from which she had just come, or anything she had ever seen before, except the shaggy man and Toto.</t>
+  </si>
+  <si>
+    <t>Known as Rapa Nui to the island's inhabitants, Rongorongo is a writing system comprised of pictographs. It has been found carved into many oblong wooden tablets and other artifacts from the island's history. The art of writing was not known in any nearby islands and the script's mere existence is sufficient to confound anthropologists.</t>
   </si>
 </sst>
 </file>
@@ -532,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +562,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -582,16 +573,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -601,7 +592,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -609,26 +600,26 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
         <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -636,26 +627,26 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -663,23 +654,23 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
         <f t="shared" si="0"/>
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -690,16 +681,16 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -717,16 +708,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -744,16 +735,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -771,16 +762,16 @@
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -798,16 +789,16 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -825,7 +816,7 @@
         <v>43</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="0"/>
@@ -840,10 +831,10 @@
         <v>48</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -861,16 +852,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G13" s="2">
         <v>0</v>
@@ -888,7 +879,7 @@
         <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
@@ -903,7 +894,7 @@
         <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
@@ -918,16 +909,16 @@
         <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E16" s="2">
         <v>0</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G16" s="2">
         <v>1</v>

--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6066119-F445-46C7-A8D6-0CB25335ADA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E124A5D0-267E-461D-8B62-FB43B21E7B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14460" yWindow="3630" windowWidth="20475" windowHeight="17070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>ID</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Richard Carrington was observing the sun.</t>
   </si>
   <si>
-    <t>Dorothy couldn't recognise nearby landmarks.</t>
-  </si>
-  <si>
     <t>His did not keep notes of his observations</t>
   </si>
   <si>
@@ -150,21 +147,12 @@
     <t>According to the study, bite size depends on what the animal is biting.</t>
   </si>
   <si>
-    <t>The officials are asking residents to help with the situation.</t>
-  </si>
-  <si>
-    <t>Social media is being used to recruit helpers.</t>
-  </si>
-  <si>
     <t>Michael Larson walked into a casino.</t>
   </si>
   <si>
     <t>Michael Larson needed one dollar banknotes.</t>
   </si>
   <si>
-    <t>The United States and Colombia have the same rule for declaring cash.</t>
-  </si>
-  <si>
     <t>I agree that California's "three strikes and you're out" law will be a financial disaster for taxpayers who care about education and other vital services. But it's far from clear that the law can even be credited with a reduction in crime in California. While it's true that crime declined in California last year, crime also dropped nationwide.</t>
   </si>
   <si>
@@ -172,6 +160,21 @@
   </si>
   <si>
     <t>Known as Rapa Nui to the island's inhabitants, Rongorongo is a writing system comprised of pictographs. It has been found carved into many oblong wooden tablets and other artifacts from the island's history. The art of writing was not known in any nearby islands and the script's mere existence is sufficient to confound anthropologists.</t>
+  </si>
+  <si>
+    <t>Colombian law requires that visitors declare cash in excess of $10000.</t>
+  </si>
+  <si>
+    <t>The officials are appealing to residents for help.</t>
+  </si>
+  <si>
+    <t>Social media is being used to help recruit volunteers.</t>
+  </si>
+  <si>
+    <t>Concealing more than the allowed amount is punishable by a jail term.</t>
+  </si>
+  <si>
+    <t>Dorothy couldn't recognise the nearby landmarks.</t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,7 +565,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -573,7 +576,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -582,13 +585,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H16" si="0">IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
+        <f>IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
         <v>59</v>
       </c>
     </row>
@@ -600,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -615,7 +618,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C3),0,LEN(TRIM(C3))-LEN(SUBSTITUTE(C3," ",""))+1)</f>
         <v>58</v>
       </c>
     </row>
@@ -627,22 +630,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C4),0,LEN(TRIM(C4))-LEN(SUBSTITUTE(C4," ",""))+1)</f>
         <v>57</v>
       </c>
     </row>
@@ -654,22 +657,22 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C5),0,LEN(TRIM(C5))-LEN(SUBSTITUTE(C5," ",""))+1)</f>
         <v>54</v>
       </c>
     </row>
@@ -681,22 +684,22 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C6),0,LEN(TRIM(C6))-LEN(SUBSTITUTE(C6," ",""))+1)</f>
         <v>53</v>
       </c>
     </row>
@@ -708,22 +711,22 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C7),0,LEN(TRIM(C7))-LEN(SUBSTITUTE(C7," ",""))+1)</f>
         <v>53</v>
       </c>
     </row>
@@ -735,22 +738,22 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="2">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="2">
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C8),0,LEN(TRIM(C8))-LEN(SUBSTITUTE(C8," ",""))+1)</f>
         <v>53</v>
       </c>
     </row>
@@ -762,22 +765,22 @@
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="G9" s="2">
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C9),0,LEN(TRIM(C9))-LEN(SUBSTITUTE(C9," ",""))+1)</f>
         <v>51</v>
       </c>
     </row>
@@ -789,22 +792,22 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G10" s="2">
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C10),0,LEN(TRIM(C10))-LEN(SUBSTITUTE(C10," ",""))+1)</f>
         <v>46</v>
       </c>
     </row>
@@ -813,14 +816,26 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <f>IF(ISBLANK(C11),0,LEN(TRIM(C11))-LEN(SUBSTITUTE(C11," ",""))+1)</f>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -828,20 +843,26 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f>IF(ISBLANK(C12),0,LEN(TRIM(C12))-LEN(SUBSTITUTE(C12," ",""))+1)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -849,83 +870,71 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <v>52</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="0"/>
-        <v>54</v>
+        <f>IF(ISBLANK(C13),0,LEN(TRIM(C13))-LEN(SUBSTITUTE(C13," ",""))+1)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="B14" s="2">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
+        <f>IF(ISBLANK(C14),0,LEN(TRIM(C14))-LEN(SUBSTITUTE(C14," ",""))+1)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="B15" s="2">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="0"/>
+        <f>IF(ISBLANK(C15),0,LEN(TRIM(C15))-LEN(SUBSTITUTE(C15," ",""))+1)</f>
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B16" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="2">
-        <v>1</v>
-      </c>
       <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>62</v>
+        <f>IF(ISBLANK(C16),0,LEN(TRIM(C16))-LEN(SUBSTITUTE(C16," ",""))+1)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
@@ -943,13 +952,13 @@
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" s="4"/>
       <c r="E21" s="2">
-        <f>SUM(E2:E16, G2:G16)/(15*2)</f>
-        <v>0.36666666666666664</v>
+        <f>SUM(E2:E13, G2:G13)/(12*2)</f>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K16">
-    <sortCondition ref="B2:B16"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q21">
+    <sortCondition ref="A2:A21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E124A5D0-267E-461D-8B62-FB43B21E7B73}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7826E80-258A-4397-BC6D-D4D5D9AD58A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Dorothy couldn't recognise the nearby landmarks.</t>
+  </si>
+  <si>
+    <t>According to common wisdom, feeling close to your partner is not important.</t>
+  </si>
+  <si>
+    <t>According to the new study, the degree to which a person wants to be close to their partner is what matters the most.</t>
   </si>
 </sst>
 </file>
@@ -527,7 +533,7 @@
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,7 +597,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
+        <f t="shared" ref="H2:H16" si="0">IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
         <v>59</v>
       </c>
     </row>
@@ -618,7 +624,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(ISBLANK(C3),0,LEN(TRIM(C3))-LEN(SUBSTITUTE(C3," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>58</v>
       </c>
     </row>
@@ -645,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f>IF(ISBLANK(C4),0,LEN(TRIM(C4))-LEN(SUBSTITUTE(C4," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>57</v>
       </c>
     </row>
@@ -672,7 +678,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <f>IF(ISBLANK(C5),0,LEN(TRIM(C5))-LEN(SUBSTITUTE(C5," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -699,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <f>IF(ISBLANK(C6),0,LEN(TRIM(C6))-LEN(SUBSTITUTE(C6," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -726,7 +732,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <f>IF(ISBLANK(C7),0,LEN(TRIM(C7))-LEN(SUBSTITUTE(C7," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -753,7 +759,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <f>IF(ISBLANK(C8),0,LEN(TRIM(C8))-LEN(SUBSTITUTE(C8," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
@@ -780,7 +786,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <f>IF(ISBLANK(C9),0,LEN(TRIM(C9))-LEN(SUBSTITUTE(C9," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
     </row>
@@ -807,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="2">
-        <f>IF(ISBLANK(C10),0,LEN(TRIM(C10))-LEN(SUBSTITUTE(C10," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
@@ -834,7 +840,7 @@
         <v>1</v>
       </c>
       <c r="H11" s="2">
-        <f>IF(ISBLANK(C11),0,LEN(TRIM(C11))-LEN(SUBSTITUTE(C11," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -861,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="H12" s="2">
-        <f>IF(ISBLANK(C12),0,LEN(TRIM(C12))-LEN(SUBSTITUTE(C12," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
@@ -888,7 +894,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="2">
-        <f>IF(ISBLANK(C13),0,LEN(TRIM(C13))-LEN(SUBSTITUTE(C13," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>62</v>
       </c>
     </row>
@@ -903,7 +909,7 @@
         <v>24</v>
       </c>
       <c r="H14" s="2">
-        <f>IF(ISBLANK(C14),0,LEN(TRIM(C14))-LEN(SUBSTITUTE(C14," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -917,8 +923,20 @@
       <c r="C15" s="6" t="s">
         <v>25</v>
       </c>
+      <c r="D15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1</v>
+      </c>
       <c r="H15" s="2">
-        <f>IF(ISBLANK(C15),0,LEN(TRIM(C15))-LEN(SUBSTITUTE(C15," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
@@ -933,7 +951,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="2">
-        <f>IF(ISBLANK(C16),0,LEN(TRIM(C16))-LEN(SUBSTITUTE(C16," ",""))+1)</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>

--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7826E80-258A-4397-BC6D-D4D5D9AD58A4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACAD808-BB67-44BA-9C58-94E5F4CF86E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>ID</t>
   </si>
@@ -108,18 +108,12 @@
     <t>As in the United States, Colombian legislation requires travelers entering the country to declare cash in excess of ten thousand dollars. Concealing more than that amount to transport it into or out of the country is a crime punishable by up to five years in prison in the United States.</t>
   </si>
   <si>
-    <t>Proper ventilation will make a backdraft less likely. Opening a room or building at the highest point allows heated gases and smoke to be released gradually. However, suddenly breaking a window or opening a door is a mistake, because it allows oxygen to rush in, causing an explosion.</t>
-  </si>
-  <si>
     <t>When it comes to having a lasting and fulfilling relationship, common wisdom says that feeling close to your romantic partner is paramount. But a new study finds that it's not how close you feel that matters most, it's whether you are as close as you want to be, even if that's really not close at all.</t>
   </si>
   <si>
     <t>The girls ran the lemonade stand to help pay for a trip.</t>
   </si>
   <si>
-    <t>The girls had a licence for the lemonade stand.</t>
-  </si>
-  <si>
     <t>Voltaire didn't lend money to other people.</t>
   </si>
   <si>
@@ -150,9 +144,6 @@
     <t>Michael Larson walked into a casino.</t>
   </si>
   <si>
-    <t>Michael Larson needed one dollar banknotes.</t>
-  </si>
-  <si>
     <t>I agree that California's "three strikes and you're out" law will be a financial disaster for taxpayers who care about education and other vital services. But it's far from clear that the law can even be credited with a reduction in crime in California. While it's true that crime declined in California last year, crime also dropped nationwide.</t>
   </si>
   <si>
@@ -165,9 +156,6 @@
     <t>Colombian law requires that visitors declare cash in excess of $10000.</t>
   </si>
   <si>
-    <t>The officials are appealing to residents for help.</t>
-  </si>
-  <si>
     <t>Social media is being used to help recruit volunteers.</t>
   </si>
   <si>
@@ -181,6 +169,21 @@
   </si>
   <si>
     <t>According to the new study, the degree to which a person wants to be close to their partner is what matters the most.</t>
+  </si>
+  <si>
+    <t>Michael Larson needed banknotes in a small denomination.</t>
+  </si>
+  <si>
+    <t>The girls had the necessary paperwork to run the lemonade stand.</t>
+  </si>
+  <si>
+    <t>The streets were blocked by snow.</t>
+  </si>
+  <si>
+    <t>Bonds were a major source of revenue for the French government.</t>
+  </si>
+  <si>
+    <t>French bonds became more attractive to investors following the market crash.</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H16" si="0">IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
+        <f t="shared" ref="H2:H15" si="0">IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
         <v>59</v>
       </c>
     </row>
@@ -609,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
@@ -636,16 +639,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -663,7 +666,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
@@ -672,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -693,13 +696,13 @@
         <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="G6" s="2">
         <v>1</v>
@@ -720,13 +723,13 @@
         <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>1</v>
@@ -747,13 +750,13 @@
         <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -774,13 +777,13 @@
         <v>16</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E9" s="2">
         <v>0</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="2">
         <v>1</v>
@@ -801,13 +804,13 @@
         <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="G10" s="2">
         <v>0</v>
@@ -828,13 +831,13 @@
         <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -861,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -882,13 +885,13 @@
         <v>18</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -900,83 +903,88 @@
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1</v>
+      </c>
       <c r="H14" s="2">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B15" s="2">
-        <v>53</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>54</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>100</v>
-      </c>
-      <c r="B16" s="2">
-        <v>54</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="2">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="2">
+        <f>SUM(H2:H13)</f>
+        <v>650</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <f>SUM(H3:H13)/3 -12</f>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="4"/>
-      <c r="E21" s="2">
+      <c r="E20" s="2">
         <f>SUM(E2:E13, G2:G13)/(12*2)</f>
         <v>0.5</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q21">
-    <sortCondition ref="A2:A21"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q20">
+    <sortCondition ref="A2:A20"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACAD808-BB67-44BA-9C58-94E5F4CF86E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3E37C2-B61B-4FA9-9C1D-251AD81A3C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,130 +60,130 @@
     <t>Last year, crime declined in California, but not nationwide.</t>
   </si>
   <si>
-    <t>Richard Carrington was observing the sun.</t>
+    <t>The writing script was found on other islands in the area.</t>
+  </si>
+  <si>
+    <t>Two days later, the British astronomer Richard Carrington was observing the interesting sunspot group through his telescope when he saw what he described as "two patches of intensely bright and white light" over the sunspots. He jotted a note in his painstaking record. That night there was scarcely a square inch of earth that was not illuminated by aurora.</t>
+  </si>
+  <si>
+    <t>The author agrees that the "three strikes and you're out" law will help taxpayers.</t>
+  </si>
+  <si>
+    <t>Some months later, Michael Larson saw another opportunity to stack the odds in his favour with a dash of ingenuity. He walked into his bank one day and asked to withdraw his entire account balance, but with an unusual stipulation: He wanted as much of the cash as possible in one dollar notes.</t>
+  </si>
+  <si>
+    <t>With schools still closed, cars still buried and streets still blocked by the widespread weekend snowstorm, officials are asking people to pick up a shovel and help out. In Boston, a "snow angel" campaign is using social media to encourage neighbours and friends to be an angel and help dig out the stranded.</t>
+  </si>
+  <si>
+    <t>Greg Anderson, considered a key witness by the prosecution, vowed he wouldn't testify when served a subpoena last week. His lawyers said he was prepared for a third prison stay to maintain his silence. Anderson was released July 20 after a two-week stay for previously declining to testify before a different grand jury.</t>
+  </si>
+  <si>
+    <t>Even in the same animal, not all bites are the same. A new study finds that because the force in a muscle depends on how much it is stretched, an animal's bite force depends on the size of what it is biting. The finding has direct implications for ecology and evolution.</t>
+  </si>
+  <si>
+    <t>Police in Georgia have shut down a lemonade stand run by three girls trying to save up for a trip to a water park, saying they didn't have a business license or the required permits. Morningstar says police also didn't know how the lemonade was made.</t>
+  </si>
+  <si>
+    <t>Voltaire himself probably won around half a million livres, a large fortune, which he then made even larger in a series of canny investments. Soon Voltaire was a very rich man, rich enough to become a moneylender to the powerful and famous, rich enough that he no longer had to stake his financial well-being on that most unreliable and detestable profession, writing.</t>
+  </si>
+  <si>
+    <t>At the time the French crown secured much of its revenue by issuing government bonds. In 1727, in order to save money, the state cut the bonds’ interest rate. The market value of these bonds plummeted, and the market became wary of French credit. The French state was left without an easy way of raising money.</t>
+  </si>
+  <si>
+    <t>N_words</t>
+  </si>
+  <si>
+    <t>Stress is a risk factor for both depression and anxiety, he says. "We don't have data on the specific causes of depression and anxiety in this sample, but it does make sense scientifically that the Millennials who report higher levels of stress in their lives are also reporting higher levels of depression and anxiety.</t>
+  </si>
+  <si>
+    <t>According to the passage, anxiety is a risk factor for depression.</t>
+  </si>
+  <si>
+    <t>As in the United States, Colombian legislation requires travelers entering the country to declare cash in excess of ten thousand dollars. Concealing more than that amount to transport it into or out of the country is a crime punishable by up to five years in prison in the United States.</t>
+  </si>
+  <si>
+    <t>When it comes to having a lasting and fulfilling relationship, common wisdom says that feeling close to your romantic partner is paramount. But a new study finds that it's not how close you feel that matters most, it's whether you are as close as you want to be, even if that's really not close at all.</t>
+  </si>
+  <si>
+    <t>Voltaire didn't lend money to other people.</t>
+  </si>
+  <si>
+    <t>Voltaire invested some of his money.</t>
+  </si>
+  <si>
+    <t>According to the passage, the study contains data on what causes anxiety and depression.</t>
+  </si>
+  <si>
+    <t>Dorothy had a clear view of the farm house.</t>
+  </si>
+  <si>
+    <t>Greg Anderson said he is willing to testify.</t>
+  </si>
+  <si>
+    <t>According to his lawyers, Greg Anderson is prepared to spend time in prison if necessary.</t>
+  </si>
+  <si>
+    <t>According to the study, bite size depends on what the animal is biting.</t>
+  </si>
+  <si>
+    <t>I agree that California's "three strikes and you're out" law will be a financial disaster for taxpayers who care about education and other vital services. But it's far from clear that the law can even be credited with a reduction in crime in California. While it's true that crime declined in California last year, crime also dropped nationwide.</t>
+  </si>
+  <si>
+    <t>Dorothy didn't know. She looked around her anxiously for some familiar landmark; but everything was strange. Between the branches of the many roads were green meadows and a few shrubs and trees, but she couldn't see the farm-house from which she had just come, or anything she had ever seen before, except the shaggy man and Toto.</t>
+  </si>
+  <si>
+    <t>Known as Rapa Nui to the island's inhabitants, Rongorongo is a writing system comprised of pictographs. It has been found carved into many oblong wooden tablets and other artifacts from the island's history. The art of writing was not known in any nearby islands and the script's mere existence is sufficient to confound anthropologists.</t>
+  </si>
+  <si>
+    <t>Colombian law requires that visitors declare cash in excess of $10000.</t>
+  </si>
+  <si>
+    <t>Concealing more than the allowed amount is punishable by a jail term.</t>
+  </si>
+  <si>
+    <t>According to common wisdom, feeling close to your partner is not important.</t>
+  </si>
+  <si>
+    <t>According to the new study, the degree to which a person wants to be close to their partner is what matters the most.</t>
+  </si>
+  <si>
+    <t>Michael Larson needed banknotes in a small denomination.</t>
+  </si>
+  <si>
+    <t>Bonds were a major source of revenue for the French government.</t>
+  </si>
+  <si>
+    <t>Richard Carrington was observing sunspots.</t>
+  </si>
+  <si>
+    <t>Police shut down the lemonade stand, saying the girls weren't old enough to run it.</t>
+  </si>
+  <si>
+    <t>The snowstorm happened during the weekend.</t>
+  </si>
+  <si>
+    <t>The study found that the force in a muscle depends on the age of the animal.</t>
+  </si>
+  <si>
+    <t>The French state cut the bonds' interest rate in 1825. </t>
+  </si>
+  <si>
+    <t>Officials are asking people to pick up the phone and call the emergency services.</t>
+  </si>
+  <si>
+    <t>Michael Larson wanted to empty his whole bank account.</t>
   </si>
   <si>
     <t>His did not keep notes of his observations</t>
   </si>
   <si>
-    <t>The writing script was found on other islands in the area.</t>
-  </si>
-  <si>
-    <t>Two days later, the British astronomer Richard Carrington was observing the interesting sunspot group through his telescope when he saw what he described as "two patches of intensely bright and white light" over the sunspots. He jotted a note in his painstaking record. That night there was scarcely a square inch of earth that was not illuminated by aurora.</t>
-  </si>
-  <si>
-    <t>The author agrees that the "three strikes and you're out" law will help taxpayers.</t>
-  </si>
-  <si>
-    <t>Some months later, Michael Larson saw another opportunity to stack the odds in his favour with a dash of ingenuity. He walked into his bank one day and asked to withdraw his entire account balance, but with an unusual stipulation: He wanted as much of the cash as possible in one dollar notes.</t>
-  </si>
-  <si>
-    <t>With schools still closed, cars still buried and streets still blocked by the widespread weekend snowstorm, officials are asking people to pick up a shovel and help out. In Boston, a "snow angel" campaign is using social media to encourage neighbours and friends to be an angel and help dig out the stranded.</t>
-  </si>
-  <si>
-    <t>Greg Anderson, considered a key witness by the prosecution, vowed he wouldn't testify when served a subpoena last week. His lawyers said he was prepared for a third prison stay to maintain his silence. Anderson was released July 20 after a two-week stay for previously declining to testify before a different grand jury.</t>
-  </si>
-  <si>
-    <t>Even in the same animal, not all bites are the same. A new study finds that because the force in a muscle depends on how much it is stretched, an animal's bite force depends on the size of what it is biting. The finding has direct implications for ecology and evolution.</t>
-  </si>
-  <si>
-    <t>Police in Georgia have shut down a lemonade stand run by three girls trying to save up for a trip to a water park, saying they didn't have a business license or the required permits. Morningstar says police also didn't know how the lemonade was made.</t>
-  </si>
-  <si>
-    <t>Voltaire himself probably won around half a million livres, a large fortune, which he then made even larger in a series of canny investments. Soon Voltaire was a very rich man, rich enough to become a moneylender to the powerful and famous, rich enough that he no longer had to stake his financial well-being on that most unreliable and detestable profession, writing.</t>
-  </si>
-  <si>
-    <t>At the time the French crown secured much of its revenue by issuing government bonds. In 1727, in order to save money, the state cut the bonds’ interest rate. The market value of these bonds plummeted, and the market became wary of French credit. The French state was left without an easy way of raising money.</t>
-  </si>
-  <si>
-    <t>N_words</t>
-  </si>
-  <si>
-    <t>Stress is a risk factor for both depression and anxiety, he says. "We don't have data on the specific causes of depression and anxiety in this sample, but it does make sense scientifically that the Millennials who report higher levels of stress in their lives are also reporting higher levels of depression and anxiety.</t>
-  </si>
-  <si>
-    <t>According to the passage, anxiety is a risk factor for depression.</t>
-  </si>
-  <si>
-    <t>As in the United States, Colombian legislation requires travelers entering the country to declare cash in excess of ten thousand dollars. Concealing more than that amount to transport it into or out of the country is a crime punishable by up to five years in prison in the United States.</t>
-  </si>
-  <si>
-    <t>When it comes to having a lasting and fulfilling relationship, common wisdom says that feeling close to your romantic partner is paramount. But a new study finds that it's not how close you feel that matters most, it's whether you are as close as you want to be, even if that's really not close at all.</t>
-  </si>
-  <si>
-    <t>The girls ran the lemonade stand to help pay for a trip.</t>
-  </si>
-  <si>
-    <t>Voltaire didn't lend money to other people.</t>
-  </si>
-  <si>
-    <t>Voltaire invested some of his money.</t>
-  </si>
-  <si>
-    <t>According to the passage, the study contains data on what causes anxiety and depression.</t>
-  </si>
-  <si>
-    <t>Dorothy had a clear view of the farm house.</t>
-  </si>
-  <si>
-    <t>The writing system is made of pictographs.</t>
-  </si>
-  <si>
-    <t>Greg Anderson said he is willing to testify.</t>
-  </si>
-  <si>
-    <t>According to his lawyers, Greg Anderson is prepared to spend time in prison if necessary.</t>
-  </si>
-  <si>
-    <t>All bites by the same animal are the identical.</t>
-  </si>
-  <si>
-    <t>According to the study, bite size depends on what the animal is biting.</t>
-  </si>
-  <si>
-    <t>Michael Larson walked into a casino.</t>
-  </si>
-  <si>
-    <t>I agree that California's "three strikes and you're out" law will be a financial disaster for taxpayers who care about education and other vital services. But it's far from clear that the law can even be credited with a reduction in crime in California. While it's true that crime declined in California last year, crime also dropped nationwide.</t>
-  </si>
-  <si>
-    <t>Dorothy didn't know. She looked around her anxiously for some familiar landmark; but everything was strange. Between the branches of the many roads were green meadows and a few shrubs and trees, but she couldn't see the farm-house from which she had just come, or anything she had ever seen before, except the shaggy man and Toto.</t>
-  </si>
-  <si>
-    <t>Known as Rapa Nui to the island's inhabitants, Rongorongo is a writing system comprised of pictographs. It has been found carved into many oblong wooden tablets and other artifacts from the island's history. The art of writing was not known in any nearby islands and the script's mere existence is sufficient to confound anthropologists.</t>
-  </si>
-  <si>
-    <t>Colombian law requires that visitors declare cash in excess of $10000.</t>
-  </si>
-  <si>
-    <t>Social media is being used to help recruit volunteers.</t>
-  </si>
-  <si>
-    <t>Concealing more than the allowed amount is punishable by a jail term.</t>
-  </si>
-  <si>
-    <t>Dorothy couldn't recognise the nearby landmarks.</t>
-  </si>
-  <si>
-    <t>According to common wisdom, feeling close to your partner is not important.</t>
-  </si>
-  <si>
-    <t>According to the new study, the degree to which a person wants to be close to their partner is what matters the most.</t>
-  </si>
-  <si>
-    <t>Michael Larson needed banknotes in a small denomination.</t>
-  </si>
-  <si>
-    <t>The girls had the necessary paperwork to run the lemonade stand.</t>
-  </si>
-  <si>
-    <t>The streets were blocked by snow.</t>
-  </si>
-  <si>
-    <t>Bonds were a major source of revenue for the French government.</t>
-  </si>
-  <si>
-    <t>French bonds became more attractive to investors following the market crash.</t>
+    <t>Dorothy couldn't recognise any nearby landmarks.</t>
+  </si>
+  <si>
+    <t>Anthropologists are confused by the presence of this writing system on the island.</t>
+  </si>
+  <si>
+    <t>The girls ran the lemonade stand to save money for a new toy.</t>
   </si>
 </sst>
 </file>
@@ -233,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -252,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,7 +539,7 @@
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +554,7 @@
     <col min="11" max="17" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -574,10 +577,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -585,18 +588,18 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2">
+      <c r="D2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="7">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="2">
@@ -604,7 +607,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -612,15 +615,15 @@
         <v>3</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2">
@@ -631,7 +634,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -639,16 +642,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -658,7 +661,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -666,26 +669,26 @@
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1</v>
-      </c>
-      <c r="H5" s="2">
+        <v>32</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -693,26 +696,26 @@
         <v>12</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="2">
-        <v>1</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -720,26 +723,26 @@
         <v>14</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
+        <v>12</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -747,16 +750,16 @@
         <v>15</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>0</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G8" s="2">
         <v>1</v>
@@ -766,7 +769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -774,26 +777,27 @@
         <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="2">
-        <v>1</v>
-      </c>
-      <c r="H9" s="2">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -801,26 +805,26 @@
         <v>40</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1</v>
-      </c>
-      <c r="F10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="2">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -828,16 +832,16 @@
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="G11" s="2">
         <v>1</v>
@@ -847,7 +851,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -855,16 +859,16 @@
         <v>52</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12" s="2">
         <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -874,7 +878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -882,16 +886,16 @@
         <v>55</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2">
         <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G13" s="2">
         <v>1</v>
@@ -901,7 +905,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>99</v>
       </c>
@@ -909,16 +913,16 @@
         <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2">
         <v>1</v>
@@ -928,7 +932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>100</v>
       </c>
@@ -936,16 +940,16 @@
         <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2">
         <v>0</v>
@@ -955,7 +959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.25">
@@ -979,7 +983,7 @@
       <c r="C20" s="4"/>
       <c r="E20" s="2">
         <f>SUM(E2:E13, G2:G13)/(12*2)</f>
-        <v>0.5</v>
+        <v>0.45833333333333331</v>
       </c>
     </row>
   </sheetData>

--- a/stimuli/Text_stimuli.xlsx
+++ b/stimuli/Text_stimuli.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R\SPR_online\stimuli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF3E37C2-B61B-4FA9-9C1D-251AD81A3C9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B706D46-92CB-48C3-A9A7-09550A39D64A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -156,9 +156,6 @@
     <t>Richard Carrington was observing sunspots.</t>
   </si>
   <si>
-    <t>Police shut down the lemonade stand, saying the girls weren't old enough to run it.</t>
-  </si>
-  <si>
     <t>The snowstorm happened during the weekend.</t>
   </si>
   <si>
@@ -174,9 +171,6 @@
     <t>Michael Larson wanted to empty his whole bank account.</t>
   </si>
   <si>
-    <t>His did not keep notes of his observations</t>
-  </si>
-  <si>
     <t>Dorothy couldn't recognise any nearby landmarks.</t>
   </si>
   <si>
@@ -184,6 +178,39 @@
   </si>
   <si>
     <t>The girls ran the lemonade stand to save money for a new toy.</t>
+  </si>
+  <si>
+    <t>Richard Carrington did not keep notes of his observations.</t>
+  </si>
+  <si>
+    <t>Police shut down the lemonade stand because the girls weren't old enough to run it.</t>
+  </si>
+  <si>
+    <t>American industry may not know it, but debate in Congress over reforming the federal government's regulatory apparatus may profoundly improve companies' ability to survive. This week the Senate seems poised to join the House in a massive overhaul of the way in which bureaucrats enact regulations that are strangling the life out of companies.</t>
+  </si>
+  <si>
+    <t>According to the passage, the Senate and the House are expected to work together on the reforms.</t>
+  </si>
+  <si>
+    <t>Owls are more flexible than humans because a bird's head is only connected by one socket pivot. People have two, which limits our ability to twist, Forsman added. Owls also have multiple vertebrae, the small bones that make up the neck and spine, helping them achieve a wide range of motion.</t>
+  </si>
+  <si>
+    <t>A bill was drafted and introduced into Parliament several times but met with great opposition, mostly from farmers. Eventually, in 1925, it was decided that summer time should begin on the day following the third Saturday in April and close after the first Saturday in October.</t>
+  </si>
+  <si>
+    <t>The bill was mostly opposed by bankers.</t>
+  </si>
+  <si>
+    <t>According to the passage, humans are more flexible than owls.</t>
+  </si>
+  <si>
+    <t>According to the passage, the debate in Congress is not likely to affect the survival of American companies.</t>
+  </si>
+  <si>
+    <t>According to the passage, the ability to twist depends on our muscle strength.</t>
+  </si>
+  <si>
+    <t>The bill was introduced into Parliament more than once.</t>
   </si>
 </sst>
 </file>
@@ -207,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,6 +244,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -255,6 +288,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -536,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -597,13 +642,13 @@
         <v>1</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f t="shared" ref="H2:H15" si="0">IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
+        <f t="shared" ref="H2:H18" si="0">IF(ISBLANK(C2),0,LEN(TRIM(C2))-LEN(SUBSTITUTE(C2," ",""))+1)</f>
         <v>59</v>
       </c>
     </row>
@@ -645,7 +690,7 @@
         <v>31</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E4" s="7">
         <v>1</v>
@@ -678,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G5" s="7">
         <v>1</v>
@@ -699,7 +744,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="7">
         <v>1</v>
@@ -726,13 +771,13 @@
         <v>12</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7">
         <v>1</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="7">
         <v>0</v>
@@ -780,7 +825,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" s="7">
         <v>0</v>
@@ -808,13 +853,13 @@
         <v>15</v>
       </c>
       <c r="D10" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="G10" s="7">
         <v>0</v>
@@ -906,89 +951,174 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="9">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9">
+        <v>51</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="9">
+        <v>1</v>
+      </c>
+      <c r="H14" s="9">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="9">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9">
+        <v>17</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="9">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9">
+        <v>28</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="9">
+        <v>0</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1</v>
+      </c>
+      <c r="H16" s="9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>99</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B17" s="2">
         <v>53</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="2">
-        <v>1</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+    <row r="18" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>100</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B18" s="2">
         <v>54</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E15" s="2">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="H18" s="2">
-        <f>SUM(H2:H13)</f>
-        <v>650</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" s="4"/>
-      <c r="H19" s="2">
-        <f>SUM(H3:H13)/3 -12</f>
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" s="4"/>
-      <c r="E20" s="2">
-        <f>SUM(E2:E13, G2:G13)/(12*2)</f>
-        <v>0.45833333333333331</v>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="4"/>
+      <c r="H21" s="2">
+        <f>SUM(H2:H16)</f>
+        <v>801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="4"/>
+      <c r="H22" s="2">
+        <f>SUM(H3:H16)/3 -15</f>
+        <v>232.33333333333334</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="4"/>
+      <c r="E23" s="2">
+        <f>SUM(E2:E16, G2:G16)/(15*2)</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H23" s="2">
+        <f>AVERAGE(H2:H16)-1</f>
+        <v>52.4</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q20">
-    <sortCondition ref="A2:A20"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q23">
+    <sortCondition ref="A2:A23"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
